--- a/Speedy Barcodes 26July.xlsx
+++ b/Speedy Barcodes 26July.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zayed\Downloads\Catalogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2B2D07-51C5-40C6-8D65-C3DFB7555637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E907211-19C0-46AE-9F75-9E133DE84073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="639">
   <si>
     <t>UPC-12</t>
   </si>
@@ -2021,6 +2021,12 @@
   </si>
   <si>
     <t>TNMY</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>GANCB</t>
   </si>
 </sst>
 </file>
@@ -2461,7 +2467,7 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3735,10 +3741,18 @@
       <c r="A105" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="B105" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
